--- a/input/static_data/cost/season_16/player_cost_GW33.xlsx
+++ b/input/static_data/cost/season_16/player_cost_GW33.xlsx
@@ -141,37 +141,37 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="n">
-        <v>5400000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="C2" t="n">
-        <v>5400000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="D2" t="n">
-        <v>5400000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="E2" t="n">
-        <v>5400000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="F2" t="n">
-        <v>5400000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="G2" t="n">
-        <v>5400000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="H2" t="n">
-        <v>5400000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="I2" t="n">
-        <v>5400000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="J2" t="n">
-        <v>5400000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="K2" t="n">
-        <v>5400000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="L2" t="n">
-        <v>5400000.0</v>
+        <v>5300000.0</v>
       </c>
     </row>
     <row r="3">
@@ -407,37 +407,37 @@
         <v>8.0</v>
       </c>
       <c r="B9" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="C9" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="D9" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="E9" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="F9" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="G9" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="H9" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="I9" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="J9" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="K9" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="L9" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
     </row>
     <row r="10">
@@ -521,37 +521,37 @@
         <v>11.0</v>
       </c>
       <c r="B12" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="C12" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="D12" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="E12" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="F12" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="G12" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="H12" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="I12" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="J12" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="K12" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="L12" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
     </row>
     <row r="13">
@@ -559,37 +559,37 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="C13" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="D13" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="E13" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="F13" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="G13" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="H13" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="I13" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="J13" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="K13" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="L13" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
     </row>
     <row r="14">
@@ -749,37 +749,37 @@
         <v>17.0</v>
       </c>
       <c r="B18" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="C18" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="D18" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="E18" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="F18" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="G18" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="H18" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="I18" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="J18" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="K18" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="L18" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
     </row>
     <row r="19">
@@ -977,37 +977,37 @@
         <v>23.0</v>
       </c>
       <c r="B24" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="C24" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="D24" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="E24" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="F24" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="G24" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="H24" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="I24" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="J24" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="K24" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="L24" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
     </row>
     <row r="25">
@@ -1357,37 +1357,37 @@
         <v>33.0</v>
       </c>
       <c r="B34" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="C34" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="D34" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="E34" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="F34" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="G34" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="H34" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="I34" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="J34" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="K34" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="L34" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
     </row>
     <row r="35">
@@ -1509,37 +1509,37 @@
         <v>37.0</v>
       </c>
       <c r="B38" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="C38" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="D38" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="E38" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="F38" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="G38" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="H38" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="I38" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="J38" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="K38" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="L38" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
     </row>
     <row r="39">
@@ -1547,37 +1547,37 @@
         <v>38.0</v>
       </c>
       <c r="B39" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="C39" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="D39" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="E39" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="F39" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="G39" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="H39" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="I39" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="J39" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="K39" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="L39" t="n">
-        <v>4000000.0</v>
+        <v>1.0E8</v>
       </c>
     </row>
     <row r="40">
@@ -1927,37 +1927,37 @@
         <v>48.0</v>
       </c>
       <c r="B49" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="C49" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="D49" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="E49" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="F49" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="G49" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="H49" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="I49" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="J49" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="K49" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="L49" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
     </row>
     <row r="50">
@@ -2839,37 +2839,37 @@
         <v>72.0</v>
       </c>
       <c r="B73" t="n">
-        <v>4100000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="C73" t="n">
-        <v>4100000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="D73" t="n">
-        <v>4100000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="E73" t="n">
-        <v>4100000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="F73" t="n">
-        <v>4100000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="G73" t="n">
-        <v>4100000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="H73" t="n">
-        <v>4100000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="I73" t="n">
-        <v>4100000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="J73" t="n">
-        <v>4100000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="K73" t="n">
-        <v>4100000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="L73" t="n">
-        <v>4100000.0</v>
+        <v>4000000.0</v>
       </c>
     </row>
     <row r="74">
@@ -3067,37 +3067,37 @@
         <v>78.0</v>
       </c>
       <c r="B79" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="C79" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="D79" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="E79" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="F79" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="G79" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="H79" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="I79" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="J79" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="K79" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="L79" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
     </row>
     <row r="80">
@@ -3485,37 +3485,37 @@
         <v>89.0</v>
       </c>
       <c r="B90" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="C90" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="D90" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="E90" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="F90" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="G90" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="H90" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="I90" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="J90" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="K90" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="L90" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
     </row>
     <row r="91">
@@ -3523,37 +3523,37 @@
         <v>90.0</v>
       </c>
       <c r="B91" t="n">
-        <v>3900000.0</v>
+        <v>3800000.0</v>
       </c>
       <c r="C91" t="n">
-        <v>3900000.0</v>
+        <v>3800000.0</v>
       </c>
       <c r="D91" t="n">
-        <v>3900000.0</v>
+        <v>3800000.0</v>
       </c>
       <c r="E91" t="n">
-        <v>3900000.0</v>
+        <v>3800000.0</v>
       </c>
       <c r="F91" t="n">
-        <v>3900000.0</v>
+        <v>3800000.0</v>
       </c>
       <c r="G91" t="n">
-        <v>3900000.0</v>
+        <v>3800000.0</v>
       </c>
       <c r="H91" t="n">
-        <v>3900000.0</v>
+        <v>3800000.0</v>
       </c>
       <c r="I91" t="n">
-        <v>3900000.0</v>
+        <v>3800000.0</v>
       </c>
       <c r="J91" t="n">
-        <v>3900000.0</v>
+        <v>3800000.0</v>
       </c>
       <c r="K91" t="n">
-        <v>3900000.0</v>
+        <v>3800000.0</v>
       </c>
       <c r="L91" t="n">
-        <v>3900000.0</v>
+        <v>3800000.0</v>
       </c>
     </row>
     <row r="92">
@@ -3599,37 +3599,37 @@
         <v>92.0</v>
       </c>
       <c r="B93" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="C93" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="D93" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="E93" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="F93" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="G93" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="H93" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="I93" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="J93" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="K93" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="L93" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
     </row>
     <row r="94">
@@ -3789,37 +3789,37 @@
         <v>97.0</v>
       </c>
       <c r="B98" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="C98" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="D98" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="E98" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="F98" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="G98" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="H98" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="I98" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="J98" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="K98" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="L98" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
     </row>
     <row r="99">
@@ -3903,37 +3903,37 @@
         <v>100.0</v>
       </c>
       <c r="B101" t="n">
-        <v>4400000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="C101" t="n">
-        <v>4400000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="D101" t="n">
-        <v>4400000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="E101" t="n">
-        <v>4400000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="F101" t="n">
-        <v>4400000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="G101" t="n">
-        <v>4400000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="H101" t="n">
-        <v>4400000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="I101" t="n">
-        <v>4400000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="J101" t="n">
-        <v>4400000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="K101" t="n">
-        <v>4400000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="L101" t="n">
-        <v>4400000.0</v>
+        <v>4700000.0</v>
       </c>
     </row>
     <row r="102">
@@ -4055,37 +4055,37 @@
         <v>104.0</v>
       </c>
       <c r="B105" t="n">
-        <v>6900000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="C105" t="n">
-        <v>6900000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="D105" t="n">
-        <v>6900000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="E105" t="n">
-        <v>6900000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="F105" t="n">
-        <v>6900000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="G105" t="n">
-        <v>6900000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="H105" t="n">
-        <v>6900000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="I105" t="n">
-        <v>6900000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="J105" t="n">
-        <v>6900000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="K105" t="n">
-        <v>6900000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="L105" t="n">
-        <v>6900000.0</v>
+        <v>6800000.0</v>
       </c>
     </row>
     <row r="106">
@@ -4131,37 +4131,37 @@
         <v>106.0</v>
       </c>
       <c r="B107" t="n">
-        <v>6700000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="C107" t="n">
-        <v>6700000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="D107" t="n">
-        <v>6700000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="E107" t="n">
-        <v>6700000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="F107" t="n">
-        <v>6700000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="G107" t="n">
-        <v>6700000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="H107" t="n">
-        <v>6700000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="I107" t="n">
-        <v>6700000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="J107" t="n">
-        <v>6700000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="K107" t="n">
-        <v>6700000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="L107" t="n">
-        <v>6700000.0</v>
+        <v>6600000.0</v>
       </c>
     </row>
     <row r="108">
@@ -4207,37 +4207,37 @@
         <v>108.0</v>
       </c>
       <c r="B109" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="C109" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="D109" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="E109" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="F109" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="G109" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="H109" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="I109" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="J109" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="K109" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="L109" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
     </row>
     <row r="110">
@@ -4473,37 +4473,37 @@
         <v>115.0</v>
       </c>
       <c r="B116" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="C116" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="D116" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="E116" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="F116" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="G116" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="H116" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="I116" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="J116" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="K116" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="L116" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
     </row>
     <row r="117">
@@ -4701,37 +4701,37 @@
         <v>121.0</v>
       </c>
       <c r="B122" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C122" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D122" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E122" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F122" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G122" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H122" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I122" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J122" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K122" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L122" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="123">
@@ -4815,37 +4815,37 @@
         <v>124.0</v>
       </c>
       <c r="B125" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="C125" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="D125" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="E125" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="F125" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="G125" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="H125" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="I125" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="J125" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="K125" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="L125" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
     </row>
     <row r="126">
@@ -4929,37 +4929,37 @@
         <v>127.0</v>
       </c>
       <c r="B128" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="C128" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="D128" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="E128" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="F128" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="G128" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="H128" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="I128" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="J128" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="K128" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="L128" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
     </row>
     <row r="129">
@@ -4967,37 +4967,37 @@
         <v>128.0</v>
       </c>
       <c r="B129" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="C129" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="D129" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="E129" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="F129" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="G129" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="H129" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="I129" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="J129" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="K129" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="L129" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
     </row>
     <row r="130">
@@ -5081,37 +5081,37 @@
         <v>131.0</v>
       </c>
       <c r="B132" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C132" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D132" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E132" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F132" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G132" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H132" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I132" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J132" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K132" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L132" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="133">
@@ -5119,37 +5119,37 @@
         <v>132.0</v>
       </c>
       <c r="B133" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="C133" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="D133" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="E133" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="F133" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="G133" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="H133" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="I133" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="J133" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="K133" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="L133" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
     </row>
     <row r="134">
@@ -6107,37 +6107,37 @@
         <v>158.0</v>
       </c>
       <c r="B159" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="C159" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="D159" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="E159" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="F159" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="G159" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="H159" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="I159" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="J159" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="K159" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="L159" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
     </row>
     <row r="160">
@@ -6221,37 +6221,37 @@
         <v>161.0</v>
       </c>
       <c r="B162" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="C162" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="D162" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="E162" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="F162" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="G162" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="H162" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="I162" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="J162" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="K162" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="L162" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
     </row>
     <row r="163">
@@ -6259,37 +6259,37 @@
         <v>162.0</v>
       </c>
       <c r="B163" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C163" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D163" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E163" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F163" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G163" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H163" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I163" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J163" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K163" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L163" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="164">
@@ -6297,37 +6297,37 @@
         <v>163.0</v>
       </c>
       <c r="B164" t="n">
-        <v>5400000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="C164" t="n">
-        <v>5400000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="D164" t="n">
-        <v>5400000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="E164" t="n">
-        <v>5400000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="F164" t="n">
-        <v>5400000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="G164" t="n">
-        <v>5400000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="H164" t="n">
-        <v>5400000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="I164" t="n">
-        <v>5400000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="J164" t="n">
-        <v>5400000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="K164" t="n">
-        <v>5400000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="L164" t="n">
-        <v>5400000.0</v>
+        <v>5300000.0</v>
       </c>
     </row>
     <row r="165">
@@ -6335,37 +6335,37 @@
         <v>164.0</v>
       </c>
       <c r="B165" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="C165" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="D165" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="E165" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="F165" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="G165" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="H165" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="I165" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="J165" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="K165" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="L165" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
     </row>
     <row r="166">
@@ -6601,37 +6601,37 @@
         <v>171.0</v>
       </c>
       <c r="B172" t="n">
-        <v>6000000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="C172" t="n">
-        <v>6000000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="D172" t="n">
-        <v>6000000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="E172" t="n">
-        <v>6000000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="F172" t="n">
-        <v>6000000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="G172" t="n">
-        <v>6000000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="H172" t="n">
-        <v>6000000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="I172" t="n">
-        <v>6000000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="J172" t="n">
-        <v>6000000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="K172" t="n">
-        <v>6000000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="L172" t="n">
-        <v>6000000.0</v>
+        <v>5900000.0</v>
       </c>
     </row>
     <row r="173">
@@ -6753,37 +6753,37 @@
         <v>175.0</v>
       </c>
       <c r="B176" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="C176" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="D176" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="E176" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="F176" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="G176" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="H176" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="I176" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="J176" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="K176" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="L176" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
     </row>
     <row r="177">
@@ -6791,37 +6791,37 @@
         <v>176.0</v>
       </c>
       <c r="B177" t="n">
-        <v>6200000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="C177" t="n">
-        <v>6200000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="D177" t="n">
-        <v>6200000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="E177" t="n">
-        <v>6200000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="F177" t="n">
-        <v>6200000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="G177" t="n">
-        <v>6200000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="H177" t="n">
-        <v>6200000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="I177" t="n">
-        <v>6200000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="J177" t="n">
-        <v>6200000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="K177" t="n">
-        <v>6200000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="L177" t="n">
-        <v>6200000.0</v>
+        <v>6400000.0</v>
       </c>
     </row>
     <row r="178">
@@ -6829,37 +6829,37 @@
         <v>177.0</v>
       </c>
       <c r="B178" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="C178" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="D178" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="E178" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="F178" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="G178" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="H178" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="I178" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="J178" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="K178" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="L178" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
     </row>
     <row r="179">
@@ -7171,37 +7171,37 @@
         <v>186.0</v>
       </c>
       <c r="B187" t="n">
-        <v>5800000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="C187" t="n">
-        <v>5800000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="D187" t="n">
-        <v>5800000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="E187" t="n">
-        <v>5800000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="F187" t="n">
-        <v>5800000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="G187" t="n">
-        <v>5800000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="H187" t="n">
-        <v>5800000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="I187" t="n">
-        <v>5800000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="J187" t="n">
-        <v>5800000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="K187" t="n">
-        <v>5800000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="L187" t="n">
-        <v>5800000.0</v>
+        <v>6000000.0</v>
       </c>
     </row>
     <row r="188">
@@ -7627,37 +7627,37 @@
         <v>198.0</v>
       </c>
       <c r="B199" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="C199" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="D199" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="E199" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="F199" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="G199" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="H199" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="I199" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="J199" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="K199" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="L199" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
     </row>
     <row r="200">
@@ -7665,37 +7665,37 @@
         <v>199.0</v>
       </c>
       <c r="B200" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C200" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D200" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E200" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F200" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G200" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H200" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I200" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J200" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K200" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L200" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="201">
@@ -7817,37 +7817,37 @@
         <v>203.0</v>
       </c>
       <c r="B204" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="C204" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="D204" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="E204" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="F204" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="G204" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="H204" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="I204" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="J204" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="K204" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="L204" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
     </row>
     <row r="205">
@@ -7893,37 +7893,37 @@
         <v>205.0</v>
       </c>
       <c r="B206" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="C206" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="D206" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="E206" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="F206" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="G206" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="H206" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="I206" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="J206" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="K206" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="L206" t="n">
-        <v>4500000.0</v>
+        <v>4400000.0</v>
       </c>
     </row>
     <row r="207">
@@ -8159,37 +8159,37 @@
         <v>212.0</v>
       </c>
       <c r="B213" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="C213" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="D213" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="E213" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="F213" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="G213" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="H213" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="I213" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="J213" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="K213" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="L213" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
     </row>
     <row r="214">
@@ -8577,37 +8577,37 @@
         <v>223.0</v>
       </c>
       <c r="B224" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="C224" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="D224" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="E224" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="F224" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="G224" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="H224" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="I224" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="J224" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="K224" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="L224" t="n">
-        <v>4400000.0</v>
+        <v>4300000.0</v>
       </c>
     </row>
     <row r="225">
@@ -8615,37 +8615,37 @@
         <v>224.0</v>
       </c>
       <c r="B225" t="n">
-        <v>4100000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="C225" t="n">
-        <v>4100000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="D225" t="n">
-        <v>4100000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="E225" t="n">
-        <v>4100000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="F225" t="n">
-        <v>4100000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="G225" t="n">
-        <v>4100000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="H225" t="n">
-        <v>4100000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="I225" t="n">
-        <v>4100000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="J225" t="n">
-        <v>4100000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="K225" t="n">
-        <v>4100000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="L225" t="n">
-        <v>4100000.0</v>
+        <v>4300000.0</v>
       </c>
     </row>
     <row r="226">
@@ -8653,37 +8653,37 @@
         <v>225.0</v>
       </c>
       <c r="B226" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="C226" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="D226" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="E226" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="F226" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="G226" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="H226" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="I226" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="J226" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="K226" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="L226" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
     </row>
     <row r="227">
@@ -8805,37 +8805,37 @@
         <v>229.0</v>
       </c>
       <c r="B230" t="n">
-        <v>6400000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="C230" t="n">
-        <v>6400000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="D230" t="n">
-        <v>6400000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="E230" t="n">
-        <v>6400000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="F230" t="n">
-        <v>6400000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="G230" t="n">
-        <v>6400000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="H230" t="n">
-        <v>6400000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="I230" t="n">
-        <v>6400000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="J230" t="n">
-        <v>6400000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="K230" t="n">
-        <v>6400000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="L230" t="n">
-        <v>6400000.0</v>
+        <v>6300000.0</v>
       </c>
     </row>
     <row r="231">
@@ -8919,37 +8919,37 @@
         <v>232.0</v>
       </c>
       <c r="B233" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="C233" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="D233" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="E233" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="F233" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="G233" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="H233" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="I233" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="J233" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="K233" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="L233" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
     </row>
     <row r="234">
@@ -8995,37 +8995,37 @@
         <v>234.0</v>
       </c>
       <c r="B235" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="C235" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="D235" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="E235" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="F235" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="G235" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="H235" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="I235" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="J235" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="K235" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="L235" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
     </row>
     <row r="236">
@@ -9109,37 +9109,37 @@
         <v>237.0</v>
       </c>
       <c r="B238" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="C238" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="D238" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="E238" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="F238" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="G238" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="H238" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="I238" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="J238" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="K238" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="L238" t="n">
-        <v>5800000.0</v>
+        <v>5700000.0</v>
       </c>
     </row>
     <row r="239">
@@ -9185,37 +9185,37 @@
         <v>239.0</v>
       </c>
       <c r="B240" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="C240" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="D240" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="E240" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="F240" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="G240" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="H240" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="I240" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="J240" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="K240" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="L240" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
     </row>
     <row r="241">
@@ -9375,37 +9375,37 @@
         <v>244.0</v>
       </c>
       <c r="B245" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="C245" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="D245" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="E245" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="F245" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="G245" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="H245" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="I245" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="J245" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="K245" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="L245" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
     </row>
     <row r="246">
@@ -9489,37 +9489,37 @@
         <v>247.0</v>
       </c>
       <c r="B248" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="C248" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="D248" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="E248" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="F248" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="G248" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="H248" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="I248" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="J248" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="K248" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="L248" t="n">
-        <v>3900000.0</v>
+        <v>4000000.0</v>
       </c>
     </row>
     <row r="249">
@@ -9679,37 +9679,37 @@
         <v>252.0</v>
       </c>
       <c r="B253" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C253" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D253" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E253" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F253" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G253" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H253" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I253" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J253" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K253" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L253" t="n">
-        <v>4900000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="254">
@@ -9945,37 +9945,37 @@
         <v>259.0</v>
       </c>
       <c r="B260" t="n">
-        <v>5000000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="C260" t="n">
-        <v>5000000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="D260" t="n">
-        <v>5000000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="E260" t="n">
-        <v>5000000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="F260" t="n">
-        <v>5000000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="G260" t="n">
-        <v>5000000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="H260" t="n">
-        <v>5000000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="I260" t="n">
-        <v>5000000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="J260" t="n">
-        <v>5000000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="K260" t="n">
-        <v>5000000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="L260" t="n">
-        <v>5000000.0</v>
+        <v>5200000.0</v>
       </c>
     </row>
     <row r="261">
@@ -10629,37 +10629,37 @@
         <v>277.0</v>
       </c>
       <c r="B278" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="C278" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="D278" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="E278" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="F278" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="G278" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="H278" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="I278" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="J278" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="K278" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="L278" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
     </row>
     <row r="279">
@@ -10705,37 +10705,37 @@
         <v>279.0</v>
       </c>
       <c r="B280" t="n">
-        <v>8700000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="C280" t="n">
-        <v>8700000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="D280" t="n">
-        <v>8700000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="E280" t="n">
-        <v>8700000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="F280" t="n">
-        <v>8700000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="G280" t="n">
-        <v>8700000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="H280" t="n">
-        <v>8700000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="I280" t="n">
-        <v>8700000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="J280" t="n">
-        <v>8700000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="K280" t="n">
-        <v>8700000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="L280" t="n">
-        <v>8700000.0</v>
+        <v>8800000.0</v>
       </c>
     </row>
     <row r="281">
@@ -10781,37 +10781,37 @@
         <v>281.0</v>
       </c>
       <c r="B282" t="n">
-        <v>9500000.0</v>
+        <v>9400000.0</v>
       </c>
       <c r="C282" t="n">
-        <v>9500000.0</v>
+        <v>9400000.0</v>
       </c>
       <c r="D282" t="n">
-        <v>9500000.0</v>
+        <v>9400000.0</v>
       </c>
       <c r="E282" t="n">
-        <v>9500000.0</v>
+        <v>9400000.0</v>
       </c>
       <c r="F282" t="n">
-        <v>9500000.0</v>
+        <v>9400000.0</v>
       </c>
       <c r="G282" t="n">
-        <v>9500000.0</v>
+        <v>9400000.0</v>
       </c>
       <c r="H282" t="n">
-        <v>9500000.0</v>
+        <v>9400000.0</v>
       </c>
       <c r="I282" t="n">
-        <v>9500000.0</v>
+        <v>9400000.0</v>
       </c>
       <c r="J282" t="n">
-        <v>9500000.0</v>
+        <v>9400000.0</v>
       </c>
       <c r="K282" t="n">
-        <v>9500000.0</v>
+        <v>9400000.0</v>
       </c>
       <c r="L282" t="n">
-        <v>9500000.0</v>
+        <v>9400000.0</v>
       </c>
     </row>
     <row r="283">
@@ -10857,37 +10857,37 @@
         <v>283.0</v>
       </c>
       <c r="B284" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="C284" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="D284" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="E284" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="F284" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="G284" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="H284" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="I284" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="J284" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="K284" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="L284" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
     </row>
     <row r="285">
@@ -12339,37 +12339,37 @@
         <v>322.0</v>
       </c>
       <c r="B323" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="C323" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="D323" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="E323" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="F323" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="G323" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="H323" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="I323" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="J323" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="K323" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="L323" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
     </row>
     <row r="324">
@@ -12491,37 +12491,37 @@
         <v>326.0</v>
       </c>
       <c r="B327" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="C327" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="D327" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="E327" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="F327" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="G327" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="H327" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="I327" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="J327" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="K327" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="L327" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
     </row>
     <row r="328">
@@ -12605,37 +12605,37 @@
         <v>329.0</v>
       </c>
       <c r="B330" t="n">
-        <v>7000000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="C330" t="n">
-        <v>7000000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="D330" t="n">
-        <v>7000000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="E330" t="n">
-        <v>7000000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="F330" t="n">
-        <v>7000000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="G330" t="n">
-        <v>7000000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="H330" t="n">
-        <v>7000000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="I330" t="n">
-        <v>7000000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="J330" t="n">
-        <v>7000000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="K330" t="n">
-        <v>7000000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="L330" t="n">
-        <v>7000000.0</v>
+        <v>6900000.0</v>
       </c>
     </row>
     <row r="331">
@@ -12643,37 +12643,37 @@
         <v>330.0</v>
       </c>
       <c r="B331" t="n">
-        <v>1.05E7</v>
+        <v>1.04E7</v>
       </c>
       <c r="C331" t="n">
-        <v>1.05E7</v>
+        <v>1.04E7</v>
       </c>
       <c r="D331" t="n">
-        <v>1.05E7</v>
+        <v>1.04E7</v>
       </c>
       <c r="E331" t="n">
-        <v>1.05E7</v>
+        <v>1.04E7</v>
       </c>
       <c r="F331" t="n">
-        <v>1.05E7</v>
+        <v>1.04E7</v>
       </c>
       <c r="G331" t="n">
-        <v>1.05E7</v>
+        <v>1.04E7</v>
       </c>
       <c r="H331" t="n">
-        <v>1.05E7</v>
+        <v>1.04E7</v>
       </c>
       <c r="I331" t="n">
-        <v>1.05E7</v>
+        <v>1.04E7</v>
       </c>
       <c r="J331" t="n">
-        <v>1.05E7</v>
+        <v>1.04E7</v>
       </c>
       <c r="K331" t="n">
-        <v>1.05E7</v>
+        <v>1.04E7</v>
       </c>
       <c r="L331" t="n">
-        <v>1.05E7</v>
+        <v>1.04E7</v>
       </c>
     </row>
     <row r="332">
@@ -12833,37 +12833,37 @@
         <v>335.0</v>
       </c>
       <c r="B336" t="n">
-        <v>6800000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="C336" t="n">
-        <v>6800000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="D336" t="n">
-        <v>6800000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="E336" t="n">
-        <v>6800000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="F336" t="n">
-        <v>6800000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="G336" t="n">
-        <v>6800000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="H336" t="n">
-        <v>6800000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="I336" t="n">
-        <v>6800000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="J336" t="n">
-        <v>6800000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="K336" t="n">
-        <v>6800000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="L336" t="n">
-        <v>6800000.0</v>
+        <v>6900000.0</v>
       </c>
     </row>
     <row r="337">
@@ -13403,37 +13403,37 @@
         <v>350.0</v>
       </c>
       <c r="B351" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="C351" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="D351" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="E351" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="F351" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="G351" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="H351" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="I351" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="J351" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="K351" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="L351" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
     </row>
     <row r="352">
@@ -13479,37 +13479,37 @@
         <v>352.0</v>
       </c>
       <c r="B353" t="n">
-        <v>5800000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="C353" t="n">
-        <v>5800000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="D353" t="n">
-        <v>5800000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="E353" t="n">
-        <v>5800000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="F353" t="n">
-        <v>5800000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="G353" t="n">
-        <v>5800000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="H353" t="n">
-        <v>5800000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="I353" t="n">
-        <v>5800000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="J353" t="n">
-        <v>5800000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="K353" t="n">
-        <v>5800000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="L353" t="n">
-        <v>5800000.0</v>
+        <v>6000000.0</v>
       </c>
     </row>
     <row r="354">
@@ -13593,37 +13593,37 @@
         <v>355.0</v>
       </c>
       <c r="B356" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="C356" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="D356" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="E356" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="F356" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="G356" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="H356" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="I356" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="J356" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="K356" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="L356" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
     </row>
     <row r="357">
@@ -13745,37 +13745,37 @@
         <v>359.0</v>
       </c>
       <c r="B360" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="C360" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="D360" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="E360" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="F360" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="G360" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="H360" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="I360" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="J360" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="K360" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="L360" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
     </row>
     <row r="361">
@@ -13821,37 +13821,37 @@
         <v>361.0</v>
       </c>
       <c r="B362" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="C362" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="D362" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="E362" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="F362" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="G362" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="H362" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="I362" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="J362" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="K362" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="L362" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
     </row>
     <row r="363">
@@ -13859,37 +13859,37 @@
         <v>362.0</v>
       </c>
       <c r="B363" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="C363" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="D363" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="E363" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="F363" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="G363" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="H363" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="I363" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="J363" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="K363" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="L363" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
     </row>
     <row r="364">
@@ -13897,37 +13897,37 @@
         <v>363.0</v>
       </c>
       <c r="B364" t="n">
-        <v>7400000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="C364" t="n">
-        <v>7400000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="D364" t="n">
-        <v>7400000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="E364" t="n">
-        <v>7400000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="F364" t="n">
-        <v>7400000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="G364" t="n">
-        <v>7400000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="H364" t="n">
-        <v>7400000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="I364" t="n">
-        <v>7400000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="J364" t="n">
-        <v>7400000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="K364" t="n">
-        <v>7400000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="L364" t="n">
-        <v>7400000.0</v>
+        <v>7500000.0</v>
       </c>
     </row>
     <row r="365">
@@ -13973,37 +13973,37 @@
         <v>365.0</v>
       </c>
       <c r="B366" t="n">
-        <v>7200000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="C366" t="n">
-        <v>7200000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="D366" t="n">
-        <v>7200000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="E366" t="n">
-        <v>7200000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="F366" t="n">
-        <v>7200000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="G366" t="n">
-        <v>7200000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="H366" t="n">
-        <v>7200000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="I366" t="n">
-        <v>7200000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="J366" t="n">
-        <v>7200000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="K366" t="n">
-        <v>7200000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="L366" t="n">
-        <v>7200000.0</v>
+        <v>7400000.0</v>
       </c>
     </row>
     <row r="367">
@@ -14543,37 +14543,37 @@
         <v>380.0</v>
       </c>
       <c r="B381" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="C381" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="D381" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="E381" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="F381" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="G381" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="H381" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="I381" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="J381" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="K381" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="L381" t="n">
-        <v>5000000.0</v>
+        <v>4900000.0</v>
       </c>
     </row>
     <row r="382">
@@ -14581,37 +14581,37 @@
         <v>381.0</v>
       </c>
       <c r="B382" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="C382" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="D382" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="E382" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="F382" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="G382" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="H382" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="I382" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="J382" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="K382" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="L382" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
     </row>
     <row r="383">
@@ -14885,37 +14885,37 @@
         <v>389.0</v>
       </c>
       <c r="B390" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="C390" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="D390" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="E390" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="F390" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="G390" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="H390" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="I390" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="J390" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="K390" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="L390" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
     </row>
     <row r="391">
@@ -14999,37 +14999,37 @@
         <v>392.0</v>
       </c>
       <c r="B393" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="C393" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="D393" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="E393" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="F393" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="G393" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="H393" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="I393" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="J393" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="K393" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="L393" t="n">
-        <v>4800000.0</v>
+        <v>4700000.0</v>
       </c>
     </row>
     <row r="394">
@@ -15075,37 +15075,37 @@
         <v>394.0</v>
       </c>
       <c r="B395" t="n">
-        <v>8700000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="C395" t="n">
-        <v>8700000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="D395" t="n">
-        <v>8700000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="E395" t="n">
-        <v>8700000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="F395" t="n">
-        <v>8700000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="G395" t="n">
-        <v>8700000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="H395" t="n">
-        <v>8700000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="I395" t="n">
-        <v>8700000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="J395" t="n">
-        <v>8700000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="K395" t="n">
-        <v>8700000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="L395" t="n">
-        <v>8700000.0</v>
+        <v>8500000.0</v>
       </c>
     </row>
     <row r="396">
@@ -15189,37 +15189,37 @@
         <v>397.0</v>
       </c>
       <c r="B398" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="C398" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="D398" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="E398" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="F398" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="G398" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="H398" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="I398" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="J398" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="K398" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="L398" t="n">
-        <v>6700000.0</v>
+        <v>6800000.0</v>
       </c>
     </row>
     <row r="399">
@@ -15531,37 +15531,37 @@
         <v>406.0</v>
       </c>
       <c r="B407" t="n">
-        <v>1.05E7</v>
+        <v>1.04E7</v>
       </c>
       <c r="C407" t="n">
-        <v>1.05E7</v>
+        <v>1.04E7</v>
       </c>
       <c r="D407" t="n">
-        <v>1.05E7</v>
+        <v>1.04E7</v>
       </c>
       <c r="E407" t="n">
-        <v>1.05E7</v>
+        <v>1.04E7</v>
       </c>
       <c r="F407" t="n">
-        <v>1.05E7</v>
+        <v>1.04E7</v>
       </c>
       <c r="G407" t="n">
-        <v>1.05E7</v>
+        <v>1.04E7</v>
       </c>
       <c r="H407" t="n">
-        <v>1.05E7</v>
+        <v>1.04E7</v>
       </c>
       <c r="I407" t="n">
-        <v>1.05E7</v>
+        <v>1.04E7</v>
       </c>
       <c r="J407" t="n">
-        <v>1.05E7</v>
+        <v>1.04E7</v>
       </c>
       <c r="K407" t="n">
-        <v>1.05E7</v>
+        <v>1.04E7</v>
       </c>
       <c r="L407" t="n">
-        <v>1.05E7</v>
+        <v>1.04E7</v>
       </c>
     </row>
     <row r="408">
@@ -15835,37 +15835,37 @@
         <v>414.0</v>
       </c>
       <c r="B415" t="n">
-        <v>7700000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="C415" t="n">
-        <v>7700000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="D415" t="n">
-        <v>7700000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="E415" t="n">
-        <v>7700000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="F415" t="n">
-        <v>7700000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="G415" t="n">
-        <v>7700000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="H415" t="n">
-        <v>7700000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="I415" t="n">
-        <v>7700000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="J415" t="n">
-        <v>7700000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="K415" t="n">
-        <v>7700000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="L415" t="n">
-        <v>7700000.0</v>
+        <v>7600000.0</v>
       </c>
     </row>
     <row r="416">
@@ -16063,37 +16063,37 @@
         <v>420.0</v>
       </c>
       <c r="B421" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="C421" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="D421" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="E421" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="F421" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="G421" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="H421" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="I421" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="J421" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="K421" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="L421" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
     </row>
     <row r="422">
@@ -16253,37 +16253,37 @@
         <v>425.0</v>
       </c>
       <c r="B426" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="C426" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="D426" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="E426" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="F426" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="G426" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="H426" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="I426" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="J426" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="K426" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="L426" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
     </row>
     <row r="427">
@@ -16367,37 +16367,37 @@
         <v>428.0</v>
       </c>
       <c r="B429" t="n">
-        <v>1.17E7</v>
+        <v>1.15E7</v>
       </c>
       <c r="C429" t="n">
-        <v>1.17E7</v>
+        <v>1.15E7</v>
       </c>
       <c r="D429" t="n">
-        <v>1.17E7</v>
+        <v>1.15E7</v>
       </c>
       <c r="E429" t="n">
-        <v>1.17E7</v>
+        <v>1.15E7</v>
       </c>
       <c r="F429" t="n">
-        <v>1.17E7</v>
+        <v>1.15E7</v>
       </c>
       <c r="G429" t="n">
-        <v>1.17E7</v>
+        <v>1.15E7</v>
       </c>
       <c r="H429" t="n">
-        <v>1.17E7</v>
+        <v>1.15E7</v>
       </c>
       <c r="I429" t="n">
-        <v>1.17E7</v>
+        <v>1.15E7</v>
       </c>
       <c r="J429" t="n">
-        <v>1.17E7</v>
+        <v>1.15E7</v>
       </c>
       <c r="K429" t="n">
-        <v>1.17E7</v>
+        <v>1.15E7</v>
       </c>
       <c r="L429" t="n">
-        <v>1.17E7</v>
+        <v>1.15E7</v>
       </c>
     </row>
     <row r="430">
@@ -16405,37 +16405,37 @@
         <v>429.0</v>
       </c>
       <c r="B430" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="C430" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="D430" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="E430" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="F430" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="G430" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="H430" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="I430" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="J430" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="K430" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="L430" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
     </row>
     <row r="431">
@@ -17203,37 +17203,37 @@
         <v>450.0</v>
       </c>
       <c r="B451" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="C451" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="D451" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="E451" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="F451" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="G451" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="H451" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="I451" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="J451" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="K451" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="L451" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
     </row>
     <row r="452">
@@ -17279,37 +17279,37 @@
         <v>452.0</v>
       </c>
       <c r="B453" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="C453" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="D453" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="E453" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="F453" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="G453" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="H453" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="I453" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="J453" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="K453" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="L453" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
     </row>
     <row r="454">
@@ -17317,37 +17317,37 @@
         <v>453.0</v>
       </c>
       <c r="B454" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="C454" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="D454" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="E454" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="F454" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="G454" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="H454" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="I454" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="J454" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="K454" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="L454" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
     </row>
     <row r="455">
@@ -17545,37 +17545,37 @@
         <v>459.0</v>
       </c>
       <c r="B460" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="C460" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="D460" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="E460" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="F460" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="G460" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="H460" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="I460" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="J460" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="K460" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="L460" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
     </row>
     <row r="461">
@@ -17773,37 +17773,37 @@
         <v>465.0</v>
       </c>
       <c r="B466" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="C466" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="D466" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="E466" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="F466" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="G466" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="H466" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="I466" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="J466" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="K466" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
       <c r="L466" t="n">
-        <v>4200000.0</v>
+        <v>4300000.0</v>
       </c>
     </row>
     <row r="467">
@@ -17925,37 +17925,37 @@
         <v>469.0</v>
       </c>
       <c r="B470" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="C470" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="D470" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="E470" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="F470" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="G470" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="H470" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="I470" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="J470" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="K470" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="L470" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
     </row>
     <row r="471">
@@ -18267,37 +18267,37 @@
         <v>478.0</v>
       </c>
       <c r="B479" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="C479" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="D479" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="E479" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="F479" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="G479" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="H479" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="I479" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="J479" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="K479" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="L479" t="n">
-        <v>5100000.0</v>
+        <v>5300000.0</v>
       </c>
     </row>
     <row r="480">
@@ -18305,37 +18305,37 @@
         <v>479.0</v>
       </c>
       <c r="B480" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="C480" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="D480" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="E480" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="F480" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="G480" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="H480" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="I480" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="J480" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="K480" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="L480" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
     </row>
     <row r="481">
@@ -18381,37 +18381,37 @@
         <v>481.0</v>
       </c>
       <c r="B482" t="n">
-        <v>9100000.0</v>
+        <v>9200000.0</v>
       </c>
       <c r="C482" t="n">
-        <v>9100000.0</v>
+        <v>9200000.0</v>
       </c>
       <c r="D482" t="n">
-        <v>9100000.0</v>
+        <v>9200000.0</v>
       </c>
       <c r="E482" t="n">
-        <v>9100000.0</v>
+        <v>9200000.0</v>
       </c>
       <c r="F482" t="n">
-        <v>9100000.0</v>
+        <v>9200000.0</v>
       </c>
       <c r="G482" t="n">
-        <v>9100000.0</v>
+        <v>9200000.0</v>
       </c>
       <c r="H482" t="n">
-        <v>9100000.0</v>
+        <v>9200000.0</v>
       </c>
       <c r="I482" t="n">
-        <v>9100000.0</v>
+        <v>9200000.0</v>
       </c>
       <c r="J482" t="n">
-        <v>9100000.0</v>
+        <v>9200000.0</v>
       </c>
       <c r="K482" t="n">
-        <v>9100000.0</v>
+        <v>9200000.0</v>
       </c>
       <c r="L482" t="n">
-        <v>9100000.0</v>
+        <v>9200000.0</v>
       </c>
     </row>
     <row r="483">
@@ -18495,37 +18495,37 @@
         <v>484.0</v>
       </c>
       <c r="B485" t="n">
-        <v>8900000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="C485" t="n">
-        <v>8900000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="D485" t="n">
-        <v>8900000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="E485" t="n">
-        <v>8900000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="F485" t="n">
-        <v>8900000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="G485" t="n">
-        <v>8900000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="H485" t="n">
-        <v>8900000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="I485" t="n">
-        <v>8900000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="J485" t="n">
-        <v>8900000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="K485" t="n">
-        <v>8900000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="L485" t="n">
-        <v>8900000.0</v>
+        <v>8800000.0</v>
       </c>
     </row>
     <row r="486">
@@ -18685,37 +18685,37 @@
         <v>489.0</v>
       </c>
       <c r="B490" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="C490" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="D490" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="E490" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="F490" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="G490" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="H490" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="I490" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="J490" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="K490" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="L490" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
     </row>
     <row r="491">
@@ -19483,37 +19483,37 @@
         <v>510.0</v>
       </c>
       <c r="B511" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="C511" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="D511" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="E511" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="F511" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="G511" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="H511" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="I511" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="J511" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="K511" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="L511" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
     </row>
     <row r="512">
@@ -19559,37 +19559,37 @@
         <v>512.0</v>
       </c>
       <c r="B513" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="C513" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="D513" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="E513" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="F513" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="G513" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="H513" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="I513" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="J513" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="K513" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="L513" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
     </row>
     <row r="514">
@@ -19711,37 +19711,37 @@
         <v>516.0</v>
       </c>
       <c r="B517" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="C517" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="D517" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="E517" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="F517" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="G517" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="H517" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="I517" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="J517" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="K517" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
       <c r="L517" t="n">
-        <v>4100000.0</v>
+        <v>4200000.0</v>
       </c>
     </row>
     <row r="518">
@@ -19825,37 +19825,37 @@
         <v>519.0</v>
       </c>
       <c r="B520" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="C520" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="D520" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="E520" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="F520" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="G520" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="H520" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="I520" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="J520" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="K520" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="L520" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
     </row>
     <row r="521">
@@ -19863,37 +19863,37 @@
         <v>520.0</v>
       </c>
       <c r="B521" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="C521" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="D521" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="E521" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="F521" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="G521" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="H521" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="I521" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="J521" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="K521" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="L521" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
     </row>
     <row r="522">
@@ -20015,37 +20015,37 @@
         <v>524.0</v>
       </c>
       <c r="B525" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="C525" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="D525" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="E525" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="F525" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="G525" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="H525" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="I525" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="J525" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="K525" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="L525" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
     </row>
     <row r="526">
@@ -20281,37 +20281,37 @@
         <v>531.0</v>
       </c>
       <c r="B532" t="n">
-        <v>5900000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="C532" t="n">
-        <v>5900000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="D532" t="n">
-        <v>5900000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="E532" t="n">
-        <v>5900000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="F532" t="n">
-        <v>5900000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="G532" t="n">
-        <v>5900000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="H532" t="n">
-        <v>5900000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="I532" t="n">
-        <v>5900000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="J532" t="n">
-        <v>5900000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="K532" t="n">
-        <v>5900000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="L532" t="n">
-        <v>5900000.0</v>
+        <v>6100000.0</v>
       </c>
     </row>
     <row r="533">
@@ -20319,37 +20319,37 @@
         <v>532.0</v>
       </c>
       <c r="B533" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="C533" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="D533" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="E533" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="F533" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="G533" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="H533" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="I533" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="J533" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="K533" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="L533" t="n">
-        <v>4500000.0</v>
+        <v>1.0E8</v>
       </c>
     </row>
     <row r="534">
@@ -20395,37 +20395,37 @@
         <v>534.0</v>
       </c>
       <c r="B535" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="C535" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="D535" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="E535" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="F535" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="G535" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="H535" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="I535" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="J535" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="K535" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="L535" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
     </row>
     <row r="536">
@@ -20471,37 +20471,37 @@
         <v>536.0</v>
       </c>
       <c r="B537" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="C537" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="D537" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="E537" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="F537" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="G537" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="H537" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="I537" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="J537" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="K537" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="L537" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
     </row>
     <row r="538">
@@ -20889,37 +20889,37 @@
         <v>547.0</v>
       </c>
       <c r="B548" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="C548" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="D548" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="E548" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="F548" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="G548" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="H548" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="I548" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="J548" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="K548" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="L548" t="n">
-        <v>5300000.0</v>
+        <v>5500000.0</v>
       </c>
     </row>
     <row r="549">
@@ -20927,37 +20927,37 @@
         <v>548.0</v>
       </c>
       <c r="B549" t="n">
-        <v>7400000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="C549" t="n">
-        <v>7400000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="D549" t="n">
-        <v>7400000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="E549" t="n">
-        <v>7400000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="F549" t="n">
-        <v>7400000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="G549" t="n">
-        <v>7400000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="H549" t="n">
-        <v>7400000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="I549" t="n">
-        <v>7400000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="J549" t="n">
-        <v>7400000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="K549" t="n">
-        <v>7400000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="L549" t="n">
-        <v>7400000.0</v>
+        <v>7600000.0</v>
       </c>
     </row>
     <row r="550">
@@ -20965,37 +20965,37 @@
         <v>549.0</v>
       </c>
       <c r="B550" t="n">
-        <v>6200000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="C550" t="n">
-        <v>6200000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="D550" t="n">
-        <v>6200000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="E550" t="n">
-        <v>6200000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="F550" t="n">
-        <v>6200000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="G550" t="n">
-        <v>6200000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="H550" t="n">
-        <v>6200000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="I550" t="n">
-        <v>6200000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="J550" t="n">
-        <v>6200000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="K550" t="n">
-        <v>6200000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="L550" t="n">
-        <v>6200000.0</v>
+        <v>6000000.0</v>
       </c>
     </row>
     <row r="551">
@@ -21079,37 +21079,37 @@
         <v>552.0</v>
       </c>
       <c r="B553" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="C553" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="D553" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="E553" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="F553" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="G553" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="H553" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="I553" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="J553" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="K553" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="L553" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
     </row>
     <row r="554">
@@ -21117,37 +21117,37 @@
         <v>553.0</v>
       </c>
       <c r="B554" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="C554" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="D554" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="E554" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="F554" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="G554" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="H554" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="I554" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="J554" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="K554" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="L554" t="n">
-        <v>5700000.0</v>
+        <v>5600000.0</v>
       </c>
     </row>
     <row r="555">
@@ -21231,37 +21231,37 @@
         <v>556.0</v>
       </c>
       <c r="B557" t="n">
-        <v>8400000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="C557" t="n">
-        <v>8400000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="D557" t="n">
-        <v>8400000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="E557" t="n">
-        <v>8400000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="F557" t="n">
-        <v>8400000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="G557" t="n">
-        <v>8400000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="H557" t="n">
-        <v>8400000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="I557" t="n">
-        <v>8400000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="J557" t="n">
-        <v>8400000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="K557" t="n">
-        <v>8400000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="L557" t="n">
-        <v>8400000.0</v>
+        <v>8500000.0</v>
       </c>
     </row>
     <row r="558">
@@ -21269,37 +21269,37 @@
         <v>557.0</v>
       </c>
       <c r="B558" t="n">
-        <v>1.04E7</v>
+        <v>1.03E7</v>
       </c>
       <c r="C558" t="n">
-        <v>1.04E7</v>
+        <v>1.03E7</v>
       </c>
       <c r="D558" t="n">
-        <v>1.04E7</v>
+        <v>1.03E7</v>
       </c>
       <c r="E558" t="n">
-        <v>1.04E7</v>
+        <v>1.03E7</v>
       </c>
       <c r="F558" t="n">
-        <v>1.04E7</v>
+        <v>1.03E7</v>
       </c>
       <c r="G558" t="n">
-        <v>1.04E7</v>
+        <v>1.03E7</v>
       </c>
       <c r="H558" t="n">
-        <v>1.04E7</v>
+        <v>1.03E7</v>
       </c>
       <c r="I558" t="n">
-        <v>1.04E7</v>
+        <v>1.03E7</v>
       </c>
       <c r="J558" t="n">
-        <v>1.04E7</v>
+        <v>1.03E7</v>
       </c>
       <c r="K558" t="n">
-        <v>1.04E7</v>
+        <v>1.03E7</v>
       </c>
       <c r="L558" t="n">
-        <v>1.04E7</v>
+        <v>1.03E7</v>
       </c>
     </row>
     <row r="559">
@@ -21421,37 +21421,37 @@
         <v>561.0</v>
       </c>
       <c r="B562" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="C562" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="D562" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="E562" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="F562" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="G562" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="H562" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="I562" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="J562" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="K562" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="L562" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
     </row>
     <row r="563">
@@ -21611,37 +21611,37 @@
         <v>566.0</v>
       </c>
       <c r="B567" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="C567" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="D567" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="E567" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="F567" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="G567" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="H567" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="I567" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="J567" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="K567" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="L567" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
     </row>
     <row r="568">
@@ -22029,37 +22029,37 @@
         <v>577.0</v>
       </c>
       <c r="B578" t="n">
-        <v>8500000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="C578" t="n">
-        <v>8500000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="D578" t="n">
-        <v>8500000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="E578" t="n">
-        <v>8500000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="F578" t="n">
-        <v>8500000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="G578" t="n">
-        <v>8500000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="H578" t="n">
-        <v>8500000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="I578" t="n">
-        <v>8500000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="J578" t="n">
-        <v>8500000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="K578" t="n">
-        <v>8500000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="L578" t="n">
-        <v>8500000.0</v>
+        <v>8600000.0</v>
       </c>
     </row>
     <row r="579">
@@ -22105,37 +22105,37 @@
         <v>579.0</v>
       </c>
       <c r="B580" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="C580" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="D580" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="E580" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="F580" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="G580" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="H580" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="I580" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="J580" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="K580" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="L580" t="n">
-        <v>6000000.0</v>
+        <v>6100000.0</v>
       </c>
     </row>
     <row r="581">
@@ -22181,37 +22181,37 @@
         <v>581.0</v>
       </c>
       <c r="B582" t="n">
-        <v>1.27E7</v>
+        <v>1.28E7</v>
       </c>
       <c r="C582" t="n">
-        <v>1.27E7</v>
+        <v>1.28E7</v>
       </c>
       <c r="D582" t="n">
-        <v>1.27E7</v>
+        <v>1.28E7</v>
       </c>
       <c r="E582" t="n">
-        <v>1.27E7</v>
+        <v>1.28E7</v>
       </c>
       <c r="F582" t="n">
-        <v>1.27E7</v>
+        <v>1.28E7</v>
       </c>
       <c r="G582" t="n">
-        <v>1.27E7</v>
+        <v>1.28E7</v>
       </c>
       <c r="H582" t="n">
-        <v>1.27E7</v>
+        <v>1.28E7</v>
       </c>
       <c r="I582" t="n">
-        <v>1.27E7</v>
+        <v>1.28E7</v>
       </c>
       <c r="J582" t="n">
-        <v>1.27E7</v>
+        <v>1.28E7</v>
       </c>
       <c r="K582" t="n">
-        <v>1.27E7</v>
+        <v>1.28E7</v>
       </c>
       <c r="L582" t="n">
-        <v>1.27E7</v>
+        <v>1.28E7</v>
       </c>
     </row>
     <row r="583">
@@ -22219,37 +22219,37 @@
         <v>582.0</v>
       </c>
       <c r="B583" t="n">
-        <v>9100000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="C583" t="n">
-        <v>9100000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="D583" t="n">
-        <v>9100000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="E583" t="n">
-        <v>9100000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="F583" t="n">
-        <v>9100000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="G583" t="n">
-        <v>9100000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="H583" t="n">
-        <v>9100000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="I583" t="n">
-        <v>9100000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="J583" t="n">
-        <v>9100000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="K583" t="n">
-        <v>9100000.0</v>
+        <v>8600000.0</v>
       </c>
       <c r="L583" t="n">
-        <v>9100000.0</v>
+        <v>8600000.0</v>
       </c>
     </row>
     <row r="584">
@@ -22295,37 +22295,37 @@
         <v>584.0</v>
       </c>
       <c r="B585" t="n">
-        <v>1.01E7</v>
+        <v>1.05E7</v>
       </c>
       <c r="C585" t="n">
-        <v>1.01E7</v>
+        <v>1.05E7</v>
       </c>
       <c r="D585" t="n">
-        <v>1.01E7</v>
+        <v>1.05E7</v>
       </c>
       <c r="E585" t="n">
-        <v>1.01E7</v>
+        <v>1.05E7</v>
       </c>
       <c r="F585" t="n">
-        <v>1.01E7</v>
+        <v>1.05E7</v>
       </c>
       <c r="G585" t="n">
-        <v>1.01E7</v>
+        <v>1.05E7</v>
       </c>
       <c r="H585" t="n">
-        <v>1.01E7</v>
+        <v>1.05E7</v>
       </c>
       <c r="I585" t="n">
-        <v>1.01E7</v>
+        <v>1.05E7</v>
       </c>
       <c r="J585" t="n">
-        <v>1.01E7</v>
+        <v>1.05E7</v>
       </c>
       <c r="K585" t="n">
-        <v>1.01E7</v>
+        <v>1.05E7</v>
       </c>
       <c r="L585" t="n">
-        <v>1.01E7</v>
+        <v>1.05E7</v>
       </c>
     </row>
     <row r="586">
@@ -22333,37 +22333,37 @@
         <v>585.0</v>
       </c>
       <c r="B586" t="n">
-        <v>6400000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="C586" t="n">
-        <v>6400000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="D586" t="n">
-        <v>6400000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="E586" t="n">
-        <v>6400000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="F586" t="n">
-        <v>6400000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="G586" t="n">
-        <v>6400000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="H586" t="n">
-        <v>6400000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="I586" t="n">
-        <v>6400000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="J586" t="n">
-        <v>6400000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="K586" t="n">
-        <v>6400000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="L586" t="n">
-        <v>6400000.0</v>
+        <v>6600000.0</v>
       </c>
     </row>
     <row r="587">
@@ -22827,37 +22827,37 @@
         <v>598.0</v>
       </c>
       <c r="B599" t="n">
-        <v>4400000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="C599" t="n">
-        <v>4400000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="D599" t="n">
-        <v>4400000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="E599" t="n">
-        <v>4400000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="F599" t="n">
-        <v>4400000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="G599" t="n">
-        <v>4400000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="H599" t="n">
-        <v>4400000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="I599" t="n">
-        <v>4400000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="J599" t="n">
-        <v>4400000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="K599" t="n">
-        <v>4400000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="L599" t="n">
-        <v>4400000.0</v>
+        <v>4600000.0</v>
       </c>
     </row>
     <row r="600">
@@ -23131,37 +23131,37 @@
         <v>606.0</v>
       </c>
       <c r="B607" t="n">
-        <v>1.19E7</v>
+        <v>1.15E7</v>
       </c>
       <c r="C607" t="n">
-        <v>1.19E7</v>
+        <v>1.15E7</v>
       </c>
       <c r="D607" t="n">
-        <v>1.19E7</v>
+        <v>1.15E7</v>
       </c>
       <c r="E607" t="n">
-        <v>1.19E7</v>
+        <v>1.15E7</v>
       </c>
       <c r="F607" t="n">
-        <v>1.19E7</v>
+        <v>1.15E7</v>
       </c>
       <c r="G607" t="n">
-        <v>1.19E7</v>
+        <v>1.15E7</v>
       </c>
       <c r="H607" t="n">
-        <v>1.19E7</v>
+        <v>1.15E7</v>
       </c>
       <c r="I607" t="n">
-        <v>1.19E7</v>
+        <v>1.15E7</v>
       </c>
       <c r="J607" t="n">
-        <v>1.19E7</v>
+        <v>1.15E7</v>
       </c>
       <c r="K607" t="n">
-        <v>1.19E7</v>
+        <v>1.15E7</v>
       </c>
       <c r="L607" t="n">
-        <v>1.19E7</v>
+        <v>1.15E7</v>
       </c>
     </row>
     <row r="608">
@@ -23169,37 +23169,37 @@
         <v>607.0</v>
       </c>
       <c r="B608" t="n">
-        <v>6300000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="C608" t="n">
-        <v>6300000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="D608" t="n">
-        <v>6300000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="E608" t="n">
-        <v>6300000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="F608" t="n">
-        <v>6300000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="G608" t="n">
-        <v>6300000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="H608" t="n">
-        <v>6300000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="I608" t="n">
-        <v>6300000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="J608" t="n">
-        <v>6300000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="K608" t="n">
-        <v>6300000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="L608" t="n">
-        <v>6300000.0</v>
+        <v>6100000.0</v>
       </c>
     </row>
     <row r="609">
@@ -23207,37 +23207,37 @@
         <v>608.0</v>
       </c>
       <c r="B609" t="n">
-        <v>6600000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="C609" t="n">
-        <v>6600000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="D609" t="n">
-        <v>6600000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="E609" t="n">
-        <v>6600000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="F609" t="n">
-        <v>6600000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="G609" t="n">
-        <v>6600000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="H609" t="n">
-        <v>6600000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="I609" t="n">
-        <v>6600000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="J609" t="n">
-        <v>6600000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="K609" t="n">
-        <v>6600000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="L609" t="n">
-        <v>6600000.0</v>
+        <v>6800000.0</v>
       </c>
     </row>
     <row r="610">
@@ -23397,37 +23397,37 @@
         <v>613.0</v>
       </c>
       <c r="B614" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="C614" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="D614" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="E614" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="F614" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="G614" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="H614" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="I614" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="J614" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="K614" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="L614" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
     </row>
     <row r="615">
@@ -23549,37 +23549,37 @@
         <v>617.0</v>
       </c>
       <c r="B618" t="n">
-        <v>9700000.0</v>
+        <v>9600000.0</v>
       </c>
       <c r="C618" t="n">
-        <v>9700000.0</v>
+        <v>9600000.0</v>
       </c>
       <c r="D618" t="n">
-        <v>9700000.0</v>
+        <v>9600000.0</v>
       </c>
       <c r="E618" t="n">
-        <v>9700000.0</v>
+        <v>9600000.0</v>
       </c>
       <c r="F618" t="n">
-        <v>9700000.0</v>
+        <v>9600000.0</v>
       </c>
       <c r="G618" t="n">
-        <v>9700000.0</v>
+        <v>9600000.0</v>
       </c>
       <c r="H618" t="n">
-        <v>9700000.0</v>
+        <v>9600000.0</v>
       </c>
       <c r="I618" t="n">
-        <v>9700000.0</v>
+        <v>9600000.0</v>
       </c>
       <c r="J618" t="n">
-        <v>9700000.0</v>
+        <v>9600000.0</v>
       </c>
       <c r="K618" t="n">
-        <v>9700000.0</v>
+        <v>9600000.0</v>
       </c>
       <c r="L618" t="n">
-        <v>9700000.0</v>
+        <v>9600000.0</v>
       </c>
     </row>
     <row r="619">
@@ -23625,37 +23625,37 @@
         <v>619.0</v>
       </c>
       <c r="B620" t="n">
-        <v>5900000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="C620" t="n">
-        <v>5900000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="D620" t="n">
-        <v>5900000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="E620" t="n">
-        <v>5900000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="F620" t="n">
-        <v>5900000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="G620" t="n">
-        <v>5900000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="H620" t="n">
-        <v>5900000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="I620" t="n">
-        <v>5900000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="J620" t="n">
-        <v>5900000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="K620" t="n">
-        <v>5900000.0</v>
+        <v>6100000.0</v>
       </c>
       <c r="L620" t="n">
-        <v>5900000.0</v>
+        <v>6100000.0</v>
       </c>
     </row>
     <row r="621">
